--- a/DOCS/Data_features.xlsx
+++ b/DOCS/Data_features.xlsx
@@ -912,14 +912,14 @@
   <dimension ref="B6:AC49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="38" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.1640625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>

--- a/DOCS/Data_features.xlsx
+++ b/DOCS/Data_features.xlsx
@@ -45,84 +45,27 @@
     <t>Area</t>
   </si>
   <si>
-    <t>Average Mean Intensity</t>
-  </si>
-  <si>
-    <t>Standard deviation  Intensity</t>
-  </si>
-  <si>
     <t>Median  pixel Intensity</t>
   </si>
   <si>
-    <t xml:space="preserve">Feret Distance </t>
-  </si>
-  <si>
-    <t>Integrated density  pixel Intensity</t>
-  </si>
-  <si>
-    <t>shape roundness</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X centroid coordinates</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y centroid coordinates</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Perimenter</t>
-  </si>
-  <si>
-    <t>Aspect Ration</t>
-  </si>
-  <si>
     <t>Nucleus</t>
   </si>
   <si>
     <t xml:space="preserve">Information about experiment </t>
   </si>
   <si>
-    <t>Description attribute</t>
-  </si>
-  <si>
     <t>Attribute Name</t>
   </si>
   <si>
-    <t>Class of attribute</t>
-  </si>
-  <si>
-    <t>NUCL.dna.A</t>
-  </si>
-  <si>
-    <t>NUCL.dna.I_MN</t>
-  </si>
-  <si>
-    <t>NUCL.dna.I_SD</t>
-  </si>
-  <si>
-    <t>NUCL.dna.I_MD</t>
-  </si>
-  <si>
-    <t>NUCL.dna.F</t>
-  </si>
-  <si>
-    <t>NUCL.dna.I_DEN</t>
-  </si>
-  <si>
     <t>NUCL.dna.RND</t>
   </si>
   <si>
-    <t>NUCL.dna.AR</t>
-  </si>
-  <si>
     <t>NUCL.dna.X</t>
   </si>
   <si>
     <t>NUCL.dna.Y</t>
   </si>
   <si>
-    <t>NUCL.dna.PERIM</t>
-  </si>
-  <si>
     <t>VORO.nucl.A</t>
   </si>
   <si>
@@ -280,6 +223,63 @@
   </si>
   <si>
     <t>INFO.FOLDER_FROM</t>
+  </si>
+  <si>
+    <t>NUCL.dna.AREA</t>
+  </si>
+  <si>
+    <t>NUCL.dna.INT_MEAN</t>
+  </si>
+  <si>
+    <t>NUCL.dna.INT_MEDIAN</t>
+  </si>
+  <si>
+    <t>NUCL.dna.FERET</t>
+  </si>
+  <si>
+    <t>NUCL.dna.ASPECTRATIO</t>
+  </si>
+  <si>
+    <t>NUCL.dna.INT_STDEV</t>
+  </si>
+  <si>
+    <t>NUCL.dna.INT_DENSITY</t>
+  </si>
+  <si>
+    <t>NUCL.dna.PERIMETER</t>
+  </si>
+  <si>
+    <t>Mean pixel intensity</t>
+  </si>
+  <si>
+    <t>Standard deviation pixel Intensity</t>
+  </si>
+  <si>
+    <t>Integrated pixel Intensity</t>
+  </si>
+  <si>
+    <t>Shape Aspect Ration</t>
+  </si>
+  <si>
+    <t>Shape roundness</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Perimeter</t>
+  </si>
+  <si>
+    <t>Attribute class</t>
+  </si>
+  <si>
+    <t>Attribute description</t>
+  </si>
+  <si>
+    <t>Centroid X coordinate</t>
+  </si>
+  <si>
+    <t>Centroid Y coordinate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shape Feret distance </t>
   </si>
 </sst>
 </file>
@@ -365,7 +365,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -435,15 +435,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -454,7 +445,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -508,8 +499,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -519,7 +514,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -527,7 +521,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="57">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -554,6 +548,8 @@
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -580,6 +576,8 @@
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -912,7 +910,7 @@
   <dimension ref="B6:AC49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C39" sqref="C39:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -925,91 +923,91 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:29" s="2" customFormat="1" ht="18">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="P6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="T6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="U6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="V6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="W6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="X6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="Y6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="Z6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="S6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="AA6" s="2" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:29" ht="18">
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="2:29" ht="18">
@@ -1018,7 +1016,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="2:29" ht="18">
@@ -1027,7 +1025,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="2:29" ht="18">
@@ -1036,7 +1034,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="2:29" ht="18">
@@ -1045,7 +1043,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="2:29" ht="18">
@@ -1054,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="2:29" ht="18">
@@ -1063,325 +1061,325 @@
         <v>0</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="2:29" ht="18">
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="2:29" ht="18">
       <c r="B15" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="2:29" ht="18">
       <c r="B16" s="4"/>
       <c r="C16" s="3" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="18">
       <c r="B17" s="4"/>
       <c r="C17" s="3" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="18">
       <c r="B18" s="4"/>
       <c r="C18" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="18">
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="18">
       <c r="B20" s="4"/>
       <c r="C20" s="3" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="18">
       <c r="B21" s="4"/>
       <c r="C21" s="3" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="18">
       <c r="B22" s="4"/>
       <c r="C22" s="3" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="18">
       <c r="B23" s="4"/>
       <c r="C23" s="3" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="18">
       <c r="B24" s="4"/>
       <c r="C24" s="3" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="18">
       <c r="B25" s="4"/>
       <c r="C25" s="3" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="18">
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
     </row>
     <row r="27" spans="2:4" ht="18">
       <c r="B27" s="4" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="18">
       <c r="B28" s="4"/>
       <c r="C28" s="3" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="18">
       <c r="B29" s="4"/>
       <c r="C29" s="3" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="18">
       <c r="B30" s="4"/>
       <c r="C30" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="18">
       <c r="B31" s="4"/>
       <c r="C31" s="3" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="18">
       <c r="B32" s="4"/>
       <c r="C32" s="3" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="18">
       <c r="B33" s="4"/>
       <c r="C33" s="3" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="18">
       <c r="B34" s="4"/>
       <c r="C34" s="3" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="18">
       <c r="B35" s="4"/>
       <c r="C35" s="3" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="18">
       <c r="B36" s="4"/>
       <c r="C36" s="3" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="18">
       <c r="B37" s="4"/>
       <c r="C37" s="3" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="18">
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="15"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
     </row>
     <row r="39" spans="2:4" ht="18">
       <c r="B39" s="4" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="18">
       <c r="B40" s="6"/>
       <c r="C40" s="3" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="18">
       <c r="B41" s="6"/>
       <c r="C41" s="3" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="18">
       <c r="B42" s="6"/>
       <c r="C42" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="18">
       <c r="B43" s="6"/>
       <c r="C43" s="3" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="18">
       <c r="B44" s="6"/>
       <c r="C44" s="3" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="18">
       <c r="B45" s="6"/>
       <c r="C45" s="3" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="18">
       <c r="B46" s="6"/>
       <c r="C46" s="3" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="18">
       <c r="B47" s="6"/>
       <c r="C47" s="3" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="18">
       <c r="B48" s="6"/>
       <c r="C48" s="3" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="18">
       <c r="B49" s="7"/>
-      <c r="C49" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>77</v>
+      <c r="C49" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/DOCS/Data_features.xlsx
+++ b/DOCS/Data_features.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
+    <workbookView xWindow="5720" yWindow="760" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="90">
   <si>
     <t>Image Folder</t>
   </si>
@@ -99,39 +100,15 @@
     <t>VORO.nucl.PERIM</t>
   </si>
   <si>
-    <t>VORO.dna.A</t>
-  </si>
-  <si>
-    <t>VORO.dna.I_MN</t>
-  </si>
-  <si>
-    <t>VORO.dna.I_SD</t>
-  </si>
-  <si>
-    <t>VORO.dna.I_MD</t>
-  </si>
-  <si>
-    <t>VORO.dna.F</t>
-  </si>
-  <si>
-    <t>VORO.dna.I_DEN</t>
-  </si>
-  <si>
     <t>VORO.dna.RND</t>
   </si>
   <si>
-    <t>VORO.dna.AR</t>
-  </si>
-  <si>
     <t>VORO.dna.X</t>
   </si>
   <si>
     <t>VORO.dna.Y</t>
   </si>
   <si>
-    <t>VORO.dna.PERIM</t>
-  </si>
-  <si>
     <t>CYTO.nucl.A</t>
   </si>
   <si>
@@ -165,39 +142,15 @@
     <t>CYTO.nucl.PERIM</t>
   </si>
   <si>
-    <t>CYTO.dna.A</t>
-  </si>
-  <si>
-    <t>CYTO.dna.I_MN</t>
-  </si>
-  <si>
-    <t>CYTO.dna.I_SD</t>
-  </si>
-  <si>
-    <t>CYTO.dna.I_MD</t>
-  </si>
-  <si>
-    <t>CYTO.dna.F</t>
-  </si>
-  <si>
-    <t>CYTO.dna.I_DEN</t>
-  </si>
-  <si>
     <t>CYTO.dna.RND</t>
   </si>
   <si>
-    <t>CYTO.dna.AR</t>
-  </si>
-  <si>
     <t>CYTO.dna.X</t>
   </si>
   <si>
     <t>CYTO.dna.Y</t>
   </si>
   <si>
-    <t>CYTO.dna.PERIM</t>
-  </si>
-  <si>
     <t>Voronoi cells excluding the nucleus (cytosol)</t>
   </si>
   <si>
@@ -280,6 +233,63 @@
   </si>
   <si>
     <t xml:space="preserve">Shape Feret distance </t>
+  </si>
+  <si>
+    <t>VORO.dna.AREA</t>
+  </si>
+  <si>
+    <t>VORO.dna.INT_MEAN</t>
+  </si>
+  <si>
+    <t>VORO.dna.INT_STDEV</t>
+  </si>
+  <si>
+    <t>VORO.dna.INT_MEDIAN</t>
+  </si>
+  <si>
+    <t>VORO.dna.INT_DENSITY</t>
+  </si>
+  <si>
+    <t>VORO.dna.FERET</t>
+  </si>
+  <si>
+    <t>VORO.dna.ASPECTRATIO</t>
+  </si>
+  <si>
+    <t>VORO.dna.PERIMETER</t>
+  </si>
+  <si>
+    <t>CYTO.dna.AREA</t>
+  </si>
+  <si>
+    <t>CYTO.dna.INT_MEAN</t>
+  </si>
+  <si>
+    <t>CYTO.dna.INT_STDEV</t>
+  </si>
+  <si>
+    <t>CYTO.dna.INT_MEDIAN</t>
+  </si>
+  <si>
+    <t>CYTO.dna.INT_DENSITY</t>
+  </si>
+  <si>
+    <t>CYTO.dna.FERET</t>
+  </si>
+  <si>
+    <t>CYTO.dna.ASPECTRATIO</t>
+  </si>
+  <si>
+    <t>CYTO.dna.PERIMETER</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>norm</t>
+  </si>
+  <si>
+    <t>nomrm</t>
   </si>
 </sst>
 </file>
@@ -445,8 +455,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="57">
+  <cellStyleXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -521,7 +549,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="57">
+  <cellStyles count="75">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -550,6 +578,15 @@
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -578,11 +615,481 @@
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$5:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$5:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2025.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7921.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>784.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2025.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4489.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>361.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>289.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2126055368"/>
+        <c:axId val="2126058376"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2126055368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2126058376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2126058376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2126055368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$5:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-0.923076923076923</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.807692307692308</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.730769230769231</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.653846153846154</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.846153846153846</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.769230769230769</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.846153846153846</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.692307692307692</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.461538461538462</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.115384615384615</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.269230769230769</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.769230769230769</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.615384615384615</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.230769230769231</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.307692307692308</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$5:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-0.574525745257453</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.567750677506775</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.558717253839205</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.546070460704607</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.570912375790425</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.339656729900632</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.570912375790425</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.552845528455285</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.002710027100271</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.220867208672087</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.112466124661247</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.339656729900632</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.452574525745257</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.411924119241192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.444444444444444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2127381560"/>
+        <c:axId val="2127384584"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2127381560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2127384584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2127384584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2127381560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -910,7 +1417,7 @@
   <dimension ref="B6:AC49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39:C49"/>
+      <selection activeCell="D15" sqref="D15:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -918,16 +1425,16 @@
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="43" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="2:29" s="2" customFormat="1" ht="18">
       <c r="B6" s="9" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>11</v>
@@ -966,37 +1473,37 @@
         <v>25</v>
       </c>
       <c r="S6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="AB6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="AC6" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC6" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:29" ht="18">
@@ -1007,7 +1514,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:29" ht="18">
@@ -1016,7 +1523,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:29" ht="18">
@@ -1025,7 +1532,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:29" ht="18">
@@ -1034,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="2:29" ht="18">
@@ -1043,7 +1550,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="2:29" ht="18">
@@ -1052,7 +1559,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="2:29" ht="18">
@@ -1061,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="2:29" ht="18">
@@ -1077,25 +1584,25 @@
         <v>7</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="2:29" ht="18">
       <c r="B16" s="4"/>
       <c r="C16" s="3" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="18">
       <c r="B17" s="4"/>
       <c r="C17" s="3" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="18">
@@ -1104,31 +1611,31 @@
         <v>8</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="18">
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="18">
       <c r="B20" s="4"/>
       <c r="C20" s="3" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="18">
       <c r="B21" s="4"/>
       <c r="C21" s="3" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>12</v>
@@ -1137,16 +1644,16 @@
     <row r="22" spans="2:4" ht="18">
       <c r="B22" s="4"/>
       <c r="C22" s="3" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="18">
       <c r="B23" s="4"/>
       <c r="C23" s="3" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>13</v>
@@ -1155,7 +1662,7 @@
     <row r="24" spans="2:4" ht="18">
       <c r="B24" s="4"/>
       <c r="C24" s="3" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>14</v>
@@ -1164,10 +1671,10 @@
     <row r="25" spans="2:4" ht="18">
       <c r="B25" s="4"/>
       <c r="C25" s="3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="18">
@@ -1177,31 +1684,31 @@
     </row>
     <row r="27" spans="2:4" ht="18">
       <c r="B27" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="18">
       <c r="B28" s="4"/>
       <c r="C28" s="3" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="18">
       <c r="B29" s="4"/>
       <c r="C29" s="3" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="18">
@@ -1210,70 +1717,70 @@
         <v>8</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="18">
       <c r="B31" s="4"/>
       <c r="C31" s="3" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="18">
       <c r="B32" s="4"/>
       <c r="C32" s="3" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="18">
       <c r="B33" s="4"/>
       <c r="C33" s="3" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="18">
       <c r="B34" s="4"/>
       <c r="C34" s="3" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="18">
       <c r="B35" s="4"/>
       <c r="C35" s="3" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="18">
       <c r="B36" s="4"/>
       <c r="C36" s="3" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="18">
       <c r="B37" s="4"/>
       <c r="C37" s="3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="18">
@@ -1283,31 +1790,31 @@
     </row>
     <row r="39" spans="2:4" ht="18">
       <c r="B39" s="4" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="18">
       <c r="B40" s="6"/>
       <c r="C40" s="3" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="18">
       <c r="B41" s="6"/>
       <c r="C41" s="3" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="18">
@@ -1316,70 +1823,70 @@
         <v>8</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="18">
       <c r="B43" s="6"/>
       <c r="C43" s="3" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="18">
       <c r="B44" s="6"/>
       <c r="C44" s="3" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="18">
       <c r="B45" s="6"/>
       <c r="C45" s="3" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="18">
       <c r="B46" s="6"/>
       <c r="C46" s="3" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="18">
       <c r="B47" s="6"/>
       <c r="C47" s="3" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="18">
       <c r="B48" s="6"/>
       <c r="C48" s="3" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="18">
       <c r="B49" s="7"/>
       <c r="C49" s="3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1391,4 +1898,312 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="4" spans="4:7">
+      <c r="F4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="4:7">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f>D5^2</f>
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f>(D5-25)/26</f>
+        <v>-0.92307692307692313</v>
+      </c>
+      <c r="G5">
+        <f>(E5-1273)/2214</f>
+        <v>-0.57452574525745259</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7">
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E19" si="0">D6^2</f>
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F19" si="1">(D6-25)/26</f>
+        <v>-0.80769230769230771</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G19" si="2">(E6-1273)/2214</f>
+        <v>-0.5677506775067751</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7">
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>-0.73076923076923073</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>-0.55871725383920501</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7">
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>-0.65384615384615385</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>-0.54607046070460707</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7">
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>-0.84615384615384615</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>-0.57091237579042453</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7">
+      <c r="D10">
+        <v>45</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>0.33965672990063234</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7">
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>-0.84615384615384615</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>-0.57091237579042453</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7">
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>-0.69230769230769229</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>-0.55284552845528456</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7">
+      <c r="D13">
+        <v>89</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>7921</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>2.4615384615384617</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>3.0027100271002709</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7">
+      <c r="D14">
+        <v>28</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>784</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>-0.22086720867208673</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7">
+      <c r="D15">
+        <v>32</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0.26923076923076922</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>-0.11246612466124661</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7">
+      <c r="D16">
+        <v>45</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>0.33965672990063234</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="D17">
+        <v>67</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>4489</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>1.6153846153846154</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>1.4525745257452574</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="D18">
+        <v>19</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>361</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>-0.23076923076923078</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>-0.41192411924119243</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>289</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>-0.30769230769230771</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>-0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20">
+        <f>AVERAGE(D5:D19)</f>
+        <v>24.933333333333334</v>
+      </c>
+      <c r="E20">
+        <f>AVERAGE(E5:E19)</f>
+        <v>1273.4666666666667</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="D21">
+        <f>STDEV(D5:D19)</f>
+        <v>26.426357693643311</v>
+      </c>
+      <c r="E21">
+        <f>STDEV(E5:E19)</f>
+        <v>2214.4676518189153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>